--- a/Data/academic_calendars.xlsx
+++ b/Data/academic_calendars.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaeltopper/Desktop/Fraternities and Sexual Assault/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15A42103-BCA0-334F-994A-4C5D77810A61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E140B55-8B30-4A4D-8E66-01AA64362E11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2380" yWindow="1600" windowWidth="38400" windowHeight="21100" xr2:uid="{41B7436E-5C7B-1747-988B-712F30AF73AF}"/>
+    <workbookView xWindow="37240" yWindow="500" windowWidth="35840" windowHeight="21100" xr2:uid="{41B7436E-5C7B-1747-988B-712F30AF73AF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>University</t>
   </si>
@@ -226,6 +226,9 @@
   </si>
   <si>
     <t>University of California-Irvine</t>
+  </si>
+  <si>
+    <t>The University of Texas at Austin</t>
   </si>
 </sst>
 </file>
@@ -609,8 +612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE5218A5-0875-7A40-9CDA-B12C58F6D9A0}">
   <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="217" zoomScaleNormal="217" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="217" zoomScaleNormal="217" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -753,666 +756,666 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
+      <c r="A8" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="B8" s="5">
-        <v>44431</v>
+        <v>44068</v>
       </c>
       <c r="C8" s="5">
-        <v>44547</v>
+        <v>44179</v>
       </c>
       <c r="D8" s="5">
-        <v>44571</v>
+        <v>44215</v>
       </c>
       <c r="E8" s="5">
-        <v>44690</v>
+        <v>44324</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="5">
-        <v>44062</v>
+        <v>44431</v>
       </c>
       <c r="C9" s="5">
-        <v>44188</v>
+        <v>44547</v>
       </c>
       <c r="D9" s="5">
-        <v>44221</v>
+        <v>44571</v>
       </c>
       <c r="E9" s="5">
-        <v>44331</v>
+        <v>44690</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="5">
-        <v>44065</v>
+        <v>44062</v>
       </c>
       <c r="C10" s="5">
-        <v>44186</v>
+        <v>44188</v>
       </c>
       <c r="D10" s="5">
-        <v>44205</v>
+        <v>44221</v>
       </c>
       <c r="E10" s="5">
-        <v>44316</v>
+        <v>44331</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
+      <c r="A11" t="s">
+        <v>56</v>
       </c>
       <c r="B11" s="5">
-        <v>44067</v>
+        <v>44068</v>
       </c>
       <c r="C11" s="5">
-        <v>44182</v>
+        <v>44165</v>
       </c>
       <c r="D11" s="5">
-        <v>44207</v>
+        <v>44215</v>
       </c>
       <c r="E11" s="5">
-        <v>44315</v>
+        <v>44317</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B12" s="5">
-        <v>44431</v>
+        <v>44065</v>
       </c>
       <c r="C12" s="5">
-        <v>44540</v>
+        <v>44186</v>
       </c>
       <c r="D12" s="5">
-        <v>44202</v>
+        <v>44205</v>
       </c>
       <c r="E12" s="5">
-        <v>44309</v>
+        <v>44316</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>11</v>
+      <c r="A13" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="B13" s="5">
-        <v>44431</v>
+        <v>44067</v>
       </c>
       <c r="C13" s="5">
-        <v>44550</v>
+        <v>44182</v>
       </c>
       <c r="D13" s="5">
-        <v>44215</v>
+        <v>44207</v>
       </c>
       <c r="E13" s="5">
-        <v>44328</v>
+        <v>44315</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B14" s="5">
-        <v>44067</v>
+        <v>44431</v>
       </c>
       <c r="C14" s="5">
-        <v>44180</v>
+        <v>44540</v>
       </c>
       <c r="D14" s="5">
-        <v>44207</v>
+        <v>44202</v>
       </c>
       <c r="E14" s="5">
-        <v>44321</v>
+        <v>44309</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="B15" s="5">
-        <v>44067</v>
+        <v>44431</v>
       </c>
       <c r="C15" s="5">
-        <v>44179</v>
+        <v>44541</v>
       </c>
       <c r="D15" s="5">
-        <v>44215</v>
+        <v>44242</v>
       </c>
       <c r="E15" s="5">
-        <v>44319</v>
+        <v>44324</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>14</v>
+      <c r="A16" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B16" s="5">
-        <v>44446</v>
+        <v>44431</v>
       </c>
       <c r="C16" s="5">
-        <v>44553</v>
+        <v>44550</v>
       </c>
       <c r="D16" s="5">
-        <v>44221</v>
+        <v>44215</v>
       </c>
       <c r="E16" s="5">
-        <v>44323</v>
+        <v>44328</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B17" s="5">
-        <v>43689</v>
+        <v>44067</v>
       </c>
       <c r="C17" s="5">
-        <v>43805</v>
+        <v>44180</v>
       </c>
       <c r="D17" s="5">
-        <v>43843</v>
+        <v>44207</v>
       </c>
       <c r="E17" s="5">
-        <v>43959</v>
+        <v>44321</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B18" s="5">
-        <v>44424</v>
+        <v>44067</v>
       </c>
       <c r="C18" s="5">
-        <v>44540</v>
+        <v>44179</v>
       </c>
       <c r="D18" s="5">
         <v>44215</v>
       </c>
       <c r="E18" s="5">
-        <v>44328</v>
+        <v>44319</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="B19" s="5">
-        <v>44090</v>
+        <v>44446</v>
       </c>
       <c r="C19" s="5">
-        <v>44179</v>
+        <v>44553</v>
       </c>
       <c r="D19" s="5">
-        <v>44207</v>
+        <v>44221</v>
       </c>
       <c r="E19" s="5">
-        <v>44362</v>
+        <v>44323</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B20" s="5">
-        <v>44068</v>
+        <v>43689</v>
       </c>
       <c r="C20" s="5">
-        <v>44180</v>
+        <v>43805</v>
       </c>
       <c r="D20" s="5">
-        <v>44207</v>
+        <v>43843</v>
       </c>
       <c r="E20" s="5">
-        <v>44316</v>
+        <v>43959</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>18</v>
+      <c r="A21" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="B21" s="5">
-        <v>44067</v>
+        <v>44424</v>
       </c>
       <c r="C21" s="5">
-        <v>44181</v>
+        <v>44540</v>
       </c>
       <c r="D21" s="5">
         <v>44215</v>
       </c>
       <c r="E21" s="5">
-        <v>44321</v>
+        <v>44328</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B22" s="5">
-        <v>44067</v>
+        <v>44090</v>
       </c>
       <c r="C22" s="5">
-        <v>44184</v>
+        <v>44179</v>
       </c>
       <c r="D22" s="5">
-        <v>44215</v>
+        <v>44207</v>
       </c>
       <c r="E22" s="5">
-        <v>44323</v>
+        <v>44362</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B23" s="5">
-        <v>44088</v>
+        <v>44068</v>
       </c>
       <c r="C23" s="5">
-        <v>44188</v>
+        <v>44180</v>
       </c>
       <c r="D23" s="5">
-        <v>44215</v>
+        <v>44207</v>
       </c>
       <c r="E23" s="5">
+        <v>44316</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="5">
+        <v>44067</v>
+      </c>
+      <c r="C24" s="5">
+        <v>44181</v>
+      </c>
+      <c r="D24" s="5">
+        <v>44215</v>
+      </c>
+      <c r="E24" s="5">
         <v>44321</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" s="5">
-        <v>44075</v>
-      </c>
-      <c r="C24" s="5">
-        <v>44186</v>
-      </c>
-      <c r="D24" s="5">
-        <v>44215</v>
-      </c>
-      <c r="E24" s="5">
-        <v>44328</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="B25" s="5">
-        <v>44066</v>
+        <v>44067</v>
       </c>
       <c r="C25" s="5">
-        <v>44181</v>
+        <v>44184</v>
       </c>
       <c r="D25" s="5">
-        <v>44216</v>
+        <v>44215</v>
       </c>
       <c r="E25" s="5">
-        <v>44337</v>
+        <v>44323</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>22</v>
+      <c r="A26" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="B26" s="5">
-        <v>44067</v>
+        <v>44088</v>
       </c>
       <c r="C26" s="5">
-        <v>44186</v>
+        <v>44188</v>
       </c>
       <c r="D26" s="5">
-        <v>44235</v>
+        <v>44215</v>
       </c>
       <c r="E26" s="5">
-        <v>44339</v>
+        <v>44321</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B27" s="5">
-        <v>44067</v>
+        <v>44075</v>
       </c>
       <c r="C27" s="5">
-        <v>44180</v>
+        <v>44186</v>
       </c>
       <c r="D27" s="5">
         <v>44215</v>
       </c>
       <c r="E27" s="5">
-        <v>44334</v>
+        <v>44328</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B28" s="5">
-        <v>44102</v>
+        <v>44066</v>
       </c>
       <c r="C28" s="5">
-        <v>44188</v>
+        <v>44181</v>
       </c>
       <c r="D28" s="5">
-        <v>44580</v>
+        <v>44216</v>
       </c>
       <c r="E28" s="5">
-        <v>44701</v>
+        <v>44337</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>25</v>
+      <c r="A29" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="B29" s="5">
-        <v>43703</v>
+        <v>44067</v>
       </c>
       <c r="C29" s="5">
-        <v>43816</v>
+        <v>44177</v>
       </c>
       <c r="D29" s="5">
-        <v>43857</v>
+        <v>44228</v>
       </c>
       <c r="E29" s="5">
-        <v>43968</v>
+        <v>44335</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>26</v>
+      <c r="A30" t="s">
+        <v>22</v>
       </c>
       <c r="B30" s="5">
-        <v>44069</v>
+        <v>44067</v>
       </c>
       <c r="C30" s="5">
-        <v>44183</v>
+        <v>44186</v>
       </c>
       <c r="D30" s="5">
-        <v>44215</v>
+        <v>44235</v>
       </c>
       <c r="E30" s="5">
-        <v>44330</v>
+        <v>44339</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>27</v>
+      <c r="A31" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="B31" s="5">
+        <v>44062</v>
+      </c>
+      <c r="C31" s="5">
+        <v>44175</v>
+      </c>
+      <c r="D31" s="5">
+        <v>44215</v>
+      </c>
+      <c r="E31" s="5">
+        <v>44328</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" s="5">
         <v>44431</v>
       </c>
-      <c r="C31" s="5">
-        <v>44545</v>
-      </c>
-      <c r="D31" s="5">
-        <v>43836</v>
-      </c>
-      <c r="E31" s="5">
-        <v>43953</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B32" s="5">
-        <v>44067</v>
-      </c>
       <c r="C32" s="5">
-        <v>44187</v>
+        <v>44548</v>
       </c>
       <c r="D32" s="5">
-        <v>44209</v>
+        <v>43843</v>
       </c>
       <c r="E32" s="5">
-        <v>44334</v>
+        <v>43960</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B33" s="5">
-        <v>44431</v>
+        <v>44067</v>
       </c>
       <c r="C33" s="5">
-        <v>44552</v>
+        <v>44180</v>
       </c>
       <c r="D33" s="5">
-        <v>44221</v>
+        <v>44215</v>
       </c>
       <c r="E33" s="5">
-        <v>44331</v>
+        <v>44334</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>30</v>
+      <c r="A34" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="B34" s="5">
         <v>44067</v>
       </c>
       <c r="C34" s="5">
-        <v>44177</v>
+        <v>44174</v>
       </c>
       <c r="D34" s="5">
-        <v>44228</v>
+        <v>44216</v>
       </c>
       <c r="E34" s="5">
         <v>44330</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>31</v>
+      <c r="A35" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="B35" s="5">
-        <v>44428</v>
+        <v>44069</v>
       </c>
       <c r="C35" s="5">
-        <v>44550</v>
+        <v>44182</v>
       </c>
       <c r="D35" s="5">
-        <v>44566</v>
+        <v>43851</v>
       </c>
       <c r="E35" s="5">
-        <v>44679</v>
+        <v>43966</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>32</v>
+      <c r="A36" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="B36" s="5">
-        <v>44067</v>
+        <v>44069</v>
       </c>
       <c r="C36" s="5">
-        <v>44552</v>
+        <v>44182</v>
       </c>
       <c r="D36" s="5">
         <v>44215</v>
       </c>
       <c r="E36" s="5">
-        <v>44334</v>
+        <v>43970</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B37" s="5">
-        <v>44066</v>
+        <v>44102</v>
       </c>
       <c r="C37" s="5">
-        <v>44183</v>
+        <v>44188</v>
       </c>
       <c r="D37" s="5">
-        <v>44214</v>
+        <v>44580</v>
       </c>
       <c r="E37" s="5">
-        <v>44331</v>
+        <v>44701</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>34</v>
+      <c r="A38" t="s">
+        <v>25</v>
       </c>
       <c r="B38" s="5">
-        <v>44060</v>
+        <v>43703</v>
       </c>
       <c r="C38" s="5">
-        <v>44183</v>
+        <v>43816</v>
       </c>
       <c r="D38" s="5">
-        <v>44202</v>
+        <v>43857</v>
       </c>
       <c r="E38" s="5">
-        <v>44316</v>
+        <v>43968</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B39" s="5">
-        <v>44062</v>
+        <v>44069</v>
       </c>
       <c r="C39" s="5">
-        <v>44177</v>
+        <v>44183</v>
       </c>
       <c r="D39" s="5">
         <v>44215</v>
       </c>
       <c r="E39" s="5">
-        <v>44321</v>
+        <v>44330</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="3" t="s">
-        <v>36</v>
+      <c r="A40" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="B40" s="5">
-        <v>44069</v>
+        <v>44105</v>
       </c>
       <c r="C40" s="5">
-        <v>44182</v>
+        <v>44183</v>
       </c>
       <c r="D40" s="5">
-        <v>43851</v>
+        <v>44200</v>
       </c>
       <c r="E40" s="5">
-        <v>43966</v>
+        <v>44358</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>37</v>
+      <c r="A41" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="B41" s="5">
-        <v>44074</v>
+        <v>44459</v>
       </c>
       <c r="C41" s="5">
-        <v>44176</v>
+        <v>44540</v>
       </c>
       <c r="D41" s="5">
-        <v>44228</v>
+        <v>44199</v>
       </c>
       <c r="E41" s="5">
-        <v>44336</v>
+        <v>44358</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
-        <v>38</v>
+      <c r="A42" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="B42" s="5">
-        <v>44068</v>
+        <v>44105</v>
       </c>
       <c r="C42" s="5">
         <v>44183</v>
       </c>
       <c r="D42" s="5">
-        <v>44228</v>
+        <v>44200</v>
       </c>
       <c r="E42" s="5">
-        <v>44332</v>
+        <v>44357</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B43" s="5">
-        <v>44067</v>
+        <v>44431</v>
       </c>
       <c r="C43" s="5">
-        <v>44187</v>
+        <v>44545</v>
       </c>
       <c r="D43" s="5">
-        <v>44215</v>
+        <v>43836</v>
       </c>
       <c r="E43" s="5">
-        <v>44327</v>
+        <v>43953</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B44" s="5">
-        <v>44062</v>
+        <v>44067</v>
       </c>
       <c r="C44" s="5">
-        <v>44184</v>
+        <v>44187</v>
       </c>
       <c r="D44" s="5">
-        <v>44215</v>
+        <v>44209</v>
       </c>
       <c r="E44" s="5">
-        <v>44331</v>
+        <v>44334</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>48</v>
+      <c r="A45" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="B45" s="5">
         <v>44431</v>
       </c>
       <c r="C45" s="5">
-        <v>44548</v>
+        <v>44552</v>
       </c>
       <c r="D45" s="5">
-        <v>43843</v>
+        <v>44221</v>
       </c>
       <c r="E45" s="5">
-        <v>43960</v>
+        <v>44331</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="B46" s="5">
-        <v>44431</v>
+        <v>44067</v>
       </c>
       <c r="C46" s="5">
-        <v>44541</v>
+        <v>44177</v>
       </c>
       <c r="D46" s="5">
-        <v>44242</v>
+        <v>44228</v>
       </c>
       <c r="E46" s="5">
-        <v>44324</v>
+        <v>44330</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -1433,230 +1436,247 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>51</v>
+      <c r="A48" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="B48" s="5">
-        <v>44060</v>
+        <v>44431</v>
       </c>
       <c r="C48" s="5">
-        <v>44183</v>
+        <v>44543</v>
       </c>
       <c r="D48" s="5">
-        <v>44221</v>
+        <v>44209</v>
       </c>
       <c r="E48" s="5">
-        <v>44323</v>
+        <v>44326</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>52</v>
+      <c r="A49" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="B49" s="5">
-        <v>44446</v>
+        <v>44428</v>
       </c>
       <c r="C49" s="5">
-        <v>44547</v>
+        <v>44550</v>
       </c>
       <c r="D49" s="5">
-        <v>44221</v>
+        <v>44566</v>
       </c>
       <c r="E49" s="5">
-        <v>44333</v>
+        <v>44679</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" s="4" t="s">
-        <v>53</v>
+      <c r="A50" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="B50" s="5">
         <v>44067</v>
       </c>
       <c r="C50" s="5">
+        <v>44552</v>
+      </c>
+      <c r="D50" s="5">
+        <v>44215</v>
+      </c>
+      <c r="E50" s="5">
+        <v>44334</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51" s="5">
+        <v>44060</v>
+      </c>
+      <c r="C51" s="5">
+        <v>44183</v>
+      </c>
+      <c r="D51" s="5">
+        <v>44221</v>
+      </c>
+      <c r="E51" s="5">
+        <v>44323</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52" s="5">
+        <v>44446</v>
+      </c>
+      <c r="C52" s="5">
+        <v>44547</v>
+      </c>
+      <c r="D52" s="5">
+        <v>44221</v>
+      </c>
+      <c r="E52" s="5">
+        <v>44333</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B53" s="5">
+        <v>44066</v>
+      </c>
+      <c r="C53" s="5">
+        <v>44183</v>
+      </c>
+      <c r="D53" s="5">
+        <v>44214</v>
+      </c>
+      <c r="E53" s="5">
+        <v>44331</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B54" s="5">
+        <v>44060</v>
+      </c>
+      <c r="C54" s="5">
+        <v>44183</v>
+      </c>
+      <c r="D54" s="5">
+        <v>44202</v>
+      </c>
+      <c r="E54" s="5">
+        <v>44316</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B55" s="5">
+        <v>44062</v>
+      </c>
+      <c r="C55" s="5">
         <v>44177</v>
       </c>
-      <c r="D50" s="5">
-        <v>44228</v>
-      </c>
-      <c r="E50" s="5">
-        <v>44335</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B51" s="5">
-        <v>44067</v>
-      </c>
-      <c r="C51" s="5">
-        <v>44174</v>
-      </c>
-      <c r="D51" s="5">
-        <v>44216</v>
-      </c>
-      <c r="E51" s="5">
-        <v>44330</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B52" s="5">
-        <v>44063</v>
-      </c>
-      <c r="C52" s="5">
-        <v>44179</v>
-      </c>
-      <c r="D52" s="5">
-        <v>44207</v>
-      </c>
-      <c r="E52" s="5">
-        <v>44324</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>56</v>
-      </c>
-      <c r="B53" s="5">
-        <v>44068</v>
-      </c>
-      <c r="C53" s="5">
-        <v>44165</v>
-      </c>
-      <c r="D53" s="5">
-        <v>44215</v>
-      </c>
-      <c r="E53" s="5">
-        <v>44317</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B54" s="5">
-        <v>44431</v>
-      </c>
-      <c r="C54" s="5">
-        <v>44543</v>
-      </c>
-      <c r="D54" s="5">
-        <v>44209</v>
-      </c>
-      <c r="E54" s="5">
-        <v>44326</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B55" s="5">
-        <v>44431</v>
-      </c>
-      <c r="C55" s="5">
-        <v>44546</v>
-      </c>
       <c r="D55" s="5">
-        <v>44571</v>
+        <v>44215</v>
       </c>
       <c r="E55" s="5">
-        <v>44694</v>
+        <v>44321</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B56" s="5">
-        <v>44062</v>
+        <v>44063</v>
       </c>
       <c r="C56" s="5">
-        <v>44175</v>
+        <v>44179</v>
       </c>
       <c r="D56" s="5">
-        <v>44215</v>
+        <v>44207</v>
       </c>
       <c r="E56" s="5">
-        <v>44328</v>
+        <v>44324</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B57" s="5">
-        <v>44459</v>
+        <v>44431</v>
       </c>
       <c r="C57" s="5">
-        <v>44540</v>
+        <v>44546</v>
       </c>
       <c r="D57" s="5">
-        <v>44199</v>
+        <v>44571</v>
       </c>
       <c r="E57" s="5">
-        <v>44358</v>
+        <v>44694</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" s="4" t="s">
-        <v>61</v>
+      <c r="A58" t="s">
+        <v>37</v>
       </c>
       <c r="B58" s="5">
-        <v>44105</v>
+        <v>44074</v>
       </c>
       <c r="C58" s="5">
-        <v>44183</v>
+        <v>44176</v>
       </c>
       <c r="D58" s="5">
-        <v>44200</v>
+        <v>44228</v>
       </c>
       <c r="E58" s="5">
-        <v>44357</v>
+        <v>44336</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" s="4" t="s">
-        <v>62</v>
+      <c r="A59" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="B59" s="5">
         <v>44068</v>
       </c>
       <c r="C59" s="5">
-        <v>44179</v>
+        <v>44183</v>
       </c>
       <c r="D59" s="5">
-        <v>44215</v>
+        <v>44228</v>
       </c>
       <c r="E59" s="5">
-        <v>44324</v>
+        <v>44332</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" s="4" t="s">
-        <v>63</v>
+      <c r="A60" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="B60" s="5">
-        <v>44105</v>
+        <v>44067</v>
       </c>
       <c r="C60" s="5">
-        <v>44183</v>
+        <v>44187</v>
       </c>
       <c r="D60" s="5">
-        <v>44200</v>
+        <v>44215</v>
       </c>
       <c r="E60" s="5">
-        <v>44358</v>
+        <v>44327</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" s="4"/>
+      <c r="A61" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B61" s="5">
+        <v>44062</v>
+      </c>
+      <c r="C61" s="5">
+        <v>44184</v>
+      </c>
+      <c r="D61" s="5">
+        <v>44215</v>
+      </c>
+      <c r="E61" s="5">
+        <v>44331</v>
+      </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E61">
+    <sortCondition ref="A2:A61"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>